--- a/target/classes/LoginData.xlsx
+++ b/target/classes/LoginData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Training\PeopleNTech\BITM Online 6\AutomationProject\TestAutomationBITM06\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF840829-78AE-4570-9065-7E6FCC5F8AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D5FCA0-6A1F-4CC6-B917-E700CCEDDCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Email</t>
   </si>
@@ -67,7 +67,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -393,15 +392,15 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.6328125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="1" max="1" width="32.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -431,9 +430,6 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
@@ -448,9 +444,6 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
@@ -464,9 +457,6 @@
       </c>
       <c r="C4" t="s">
         <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
